--- a/config_11.9/permission_server_config.xlsx
+++ b/config_11.9/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6008" uniqueCount="2261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="2265">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10408,6 +10408,22 @@
   </si>
   <si>
     <t>VIP4及以上玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xshb_cjj_xdjb</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包6月8日及之后注册的冲金鸡用户展示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -16517,13 +16533,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P437"/>
+  <dimension ref="A1:P438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G425" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I456" sqref="I456"/>
+      <selection pane="bottomRight" activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31625,6 +31641,38 @@
         <v>2259</v>
       </c>
     </row>
+    <row r="438" spans="1:13">
+      <c r="A438" s="7">
+        <v>437</v>
+      </c>
+      <c r="B438" s="7">
+        <v>1</v>
+      </c>
+      <c r="C438" s="119" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D438" s="119" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G438" s="7">
+        <v>537</v>
+      </c>
+      <c r="H438" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I438" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" s="119" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L438" s="7">
+        <v>1635782400</v>
+      </c>
+      <c r="M438" s="7" t="s">
+        <v>2264</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O406"/>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -31635,13 +31683,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1237" sqref="D1237"/>
+      <selection pane="bottomRight" activeCell="C1233" sqref="C1233:G1234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -60922,6 +60970,52 @@
       </c>
       <c r="G1232" s="122" t="s">
         <v>2260</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7">
+      <c r="A1233" s="9">
+        <v>1232</v>
+      </c>
+      <c r="B1233" s="21">
+        <v>537</v>
+      </c>
+      <c r="C1233" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1233" s="122" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E1233" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1233" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1233" s="122" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7">
+      <c r="A1234" s="9">
+        <v>1233</v>
+      </c>
+      <c r="B1234" s="21">
+        <v>537</v>
+      </c>
+      <c r="C1234" s="48" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1234" s="21">
+        <v>1623081600</v>
+      </c>
+      <c r="E1234" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1234" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1234" s="48" t="s">
+        <v>1986</v>
       </c>
     </row>
   </sheetData>
